--- a/biology/Médecine/Jacques_Miller/Jacques_Miller.xlsx
+++ b/biology/Médecine/Jacques_Miller/Jacques_Miller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Francis Albert Pierre Miller AC, FRS, FAA (né le 2 avril 1931 à Nice en France) est un scientifique australien. Il est célèbre pour avoir découvert la fonction immunologique du thymus[1] et pour avoir identifié chez les mammifères les deux subdivisions des lymphocytes (les lymphocytes T et les lymphocytes B) ainsi que pour avoir déterminé leurs fonctions.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Francis Albert Pierre Miller AC, FRS, FAA (né le 2 avril 1931 à Nice en France) est un scientifique australien. Il est célèbre pour avoir découvert la fonction immunologique du thymus et pour avoir identifié chez les mammifères les deux subdivisions des lymphocytes (les lymphocytes T et les lymphocytes B) ainsi que pour avoir déterminé leurs fonctions.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né Meunier, il passe son enfance en Chine où son père avait la direction d'une succursale bancaire. Conséquence du régime de Vichy, la famille acquiert la nationalité britannique et le nom de « Miller »[2]. Il étudie la médecine en Australie, puis en Angleterre où il passe sa thèse sur les leucémies virales de la souris. À cette occasion, il entraperçoit le rôle du thymus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né Meunier, il passe son enfance en Chine où son père avait la direction d'une succursale bancaire. Conséquence du régime de Vichy, la famille acquiert la nationalité britannique et le nom de « Miller ». Il étudie la médecine en Australie, puis en Angleterre où il passe sa thèse sur les leucémies virales de la souris. À cette occasion, il entraperçoit le rôle du thymus.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1966 : Prix Gairdner
 1967 : Médaille scientifique de la Zoological Society of London
@@ -557,8 +573,43 @@
 2001 : Médaille Copley de la Royal Society de Londres
 2003 : Prime Minister's Prize for Science : Professeur Jacques Miller, « le père moderne de l'immunologie ».
 2003 : Compagnon de l'ordre d'Australie (AC).
-2019 : Prix Albert-Lasker pour la recherche médicale fondamentale[3]
-Sources
+2019 : Prix Albert-Lasker pour la recherche médicale fondamentale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Miller</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Miller</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Récompenses et distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 ↑ Miller JImmunological function of the thymus, Lancet, 1961;278:748-749
 ↑ Watts G, Jacques Miller: immunologist who discovered role of the thymus, Lancet, 2011;378:1290
 ↑ 2019 Albert Lasker Basic Medical Research Award, B and T cells—the organizing principle of the adaptive immune system
